--- a/input_files/UC_case_study_5bus_network_F.xlsx
+++ b/input_files/UC_case_study_5bus_network_F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bus index" sheetId="5" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>Bubble SEN Wind 2014-2045_0910refyr.csv</t>
   </si>
   <si>
-    <t>Bubble NEN Wind 2014-2045_0910refyr.csv</t>
-  </si>
-  <si>
     <t>CAN Solar PV.csv</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Blue</t>
+  </si>
+  <si>
+    <t>Bubble HUN Wind 2014-2045_0910refyr.csv</t>
   </si>
 </sst>
 </file>
@@ -238,6 +238,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,8 +317,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="639">
+  <cellStyleXfs count="641">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -988,7 +991,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="639">
+  <cellStyles count="641">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1308,6 +1311,7 @@
     <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1627,6 +1631,7 @@
     <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1958,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2004,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>43</v>
@@ -2024,7 +2029,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2041,7 +2046,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2055,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2089,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2156,8 +2161,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="9">
-        <f t="shared" ref="C2:C9" si="0">(PI()/6)/(E2/100)*D2</f>
-        <v>6.9813170079773175E-3</v>
+        <f>(PI()/12)/(E2/100)*D2</f>
+        <v>3.4906585039886587E-3</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -2177,8 +2182,8 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" si="0"/>
-        <v>6.9813170079773175E-3</v>
+        <f>(PI()/12)/(E3/100)*D3</f>
+        <v>3.4906585039886587E-3</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -2198,14 +2203,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>1.8699956271367814E-2</v>
+        <f t="shared" ref="C4:C8" si="0">(PI()/6)/(E4/100)*D4</f>
+        <v>1.9392547244381438E-2</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -2219,14 +2224,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0943951023931952E-2</v>
+        <f>(PI()/3)/(E5/100)*D5</f>
+        <v>5.8177641733144311E-2</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -2241,13 +2246,13 @@
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.0471975511965976E-2</v>
+        <v>1.0908307824964559E-2</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -2283,13 +2288,13 @@
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>1.1635528346628862E-2</v>
+        <v>1.1382582078223888E-2</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -2303,14 +2308,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" si="0"/>
-        <v>5.2359877559829881E-3</v>
+        <f t="shared" ref="C9" si="1">(PI()/6)/(E9/100)*D9</f>
+        <v>3.4906585039886587E-3</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2331,7 +2336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
@@ -2383,7 +2388,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2455,7 +2460,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2742,10 +2747,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>

--- a/input_files/UC_case_study_5bus_network_F.xlsx
+++ b/input_files/UC_case_study_5bus_network_F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bus index" sheetId="5" r:id="rId1"/>
@@ -238,7 +238,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1963,7 +1962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2118,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2162,13 +2161,13 @@
       </c>
       <c r="C2" s="9">
         <f>(PI()/12)/(E2/100)*D2</f>
-        <v>3.4906585039886587E-3</v>
+        <v>2.6179938779914941E-3</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -2183,13 +2182,13 @@
       </c>
       <c r="C3" s="9">
         <f>(PI()/12)/(E3/100)*D3</f>
-        <v>3.4906585039886587E-3</v>
+        <v>2.6179938779914941E-3</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -2309,13 +2308,13 @@
       </c>
       <c r="C9" s="9">
         <f t="shared" ref="C9" si="1">(PI()/6)/(E9/100)*D9</f>
-        <v>3.4906585039886587E-3</v>
+        <v>2.6179938779914941E-3</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2460,7 +2459,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2694,19 +2693,19 @@
         <v>7</v>
       </c>
       <c r="E4" s="5">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="5">
         <f>0.01*E4</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G4" s="5">
         <f>E4</f>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="H4" s="5">
         <f>G4</f>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -2759,19 +2758,19 @@
         <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F5" s="5">
         <f>0.05*E5</f>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="5">
         <f>0.8*E5</f>
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="H5" s="5">
         <f>G5</f>
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -2790,23 +2789,23 @@
       </c>
       <c r="N5" s="5">
         <f>6*E5</f>
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="O5" s="5">
         <f>0.9*E5</f>
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P5" s="5">
         <f>0.01*E5</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="5">
         <f>0.4*O5</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="R5" s="5">
         <f>Q5</f>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="S5" s="5">
         <v>0.85</v>
